--- a/ute/ui_config_patch/AB281AB/defaultLanguage/input.xlsx
+++ b/ute/ui_config_patch/AB281AB/defaultLanguage/input.xlsx
@@ -11974,7 +11974,12 @@
     </r>
   </si>
   <si>
-    <t>Hướng dẫn đo lường: 1 Độ chính xác.</t>
+    <t>Hướng dẫn đo lường:
+1. Thiết bị này hỗ trợ phạm vi đo 70% -100%
+2. Vui lòng đảm bảo rằng đồng hồ được mặc một ngón tay cách xương cổ tay, không quá thấp, và buộc dây đeo chặt chẽ.
+Trong quá trình đo lường, vui lòng cố gắng giữ yên và giữ số quay số hướng lên.
+4. Các yếu tố như mặc không chính xác, run trong khi đo, treo cánh tay ở cả hai bên, tóc cánh tay, hình xăm hoặc ở trong môi trường lạnh có thể ảnh hưởng đến độ chính xác đo.
+5. Kết quả đo lường chỉ để tham khảo và không nên được sử dụng như một cơ sở chẩn đoán y tế.</t>
   </si>
   <si>
     <t>測量須知:
@@ -12501,7 +12506,7 @@
     <t>Độ ẩm</t>
   </si>
   <si>
-    <t>濕度</t>
+    <t>溼度</t>
   </si>
   <si>
     <t>未来天气</t>
@@ -17797,11 +17802,11 @@
   <dimension ref="A1:BA659"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="5" ySplit="2" topLeftCell="W241" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="2" topLeftCell="AX254" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="W246" sqref="W246"/>
+      <selection pane="bottomRight" activeCell="AY256" sqref="AY256"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="14.4"/>
